--- a/biology/Zoologie/Heliconius_hecale/Heliconius_hecale.xlsx
+++ b/biology/Zoologie/Heliconius_hecale/Heliconius_hecale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius hecale est une espèce d'insectes lépidoptères de la famille des Nymphalidae, de la sous-famille des Heliconiinae et du genre Heliconius.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Heliconius hecale a été décrit par Johan Christian Fabricius en 1775 sous le nom de Papilio hecale[1].
-Sous-espèces
-Heliconius hecale hecale ; présent au Surinam
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hecale a été décrit par Johan Christian Fabricius en 1775 sous le nom de Papilio hecale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliconius_hecale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius hecale hecale ; présent au Surinam
 Heliconius hecale anderida Hewitson, 1853 ; présent au Venezuela
 Heliconius hecale annetta Riffarth, 1900 ; présent en Colombie
 Heliconius hecale australis Brown, 1976 ; présent en Équateur
@@ -525,7 +574,7 @@
 Heliconius hecale ennuis Weymer, 1891 ; présent au Brésil
 Heliconius hecale felix Weymer, 1894 ; présent au Pérou
 Heliconius hecale fornarina Hewitson, 1853 ; présent au Guatemala (synonyme : Heliconius hecale styx)
-Heliconius hecale holcophorus Staudinger, [1897] ; présent en Colombie (synonyme : Heliconius hecale semiphorus).
+Heliconius hecale holcophorus Staudinger,  ; présent en Colombie (synonyme : Heliconius hecale semiphorus).
 Heliconius hecale humboldti Neustetter, 1928 ; présent au Pérou
 Heliconius hecale ithaca Felder ; présent en Colombie (synonyme : Heliconius hecale vittatus).
 Heliconius hecale latus Riffarth, 1900 ; présent au Brésil
@@ -543,38 +592,7 @@
 Heliconius hecale sulphureus Weymer, 1894 ; présent au Brésil
 Heliconius hecale vetustus Butler, 1873 ; présent en Guyane, au Guyana, au Surinam,
 Heliconius hecale zeus Neukirchen, 1995 ; présent en Bolivie
-Heliconius hecale zuleika Hewitson, 1854 ; présent au Nicaragua et au Panama (synonyme Heliconius hecale jucundus et Heliconius hecale xanthicles)[1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Heliconius_hecale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_hecale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Nom vernaculaire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nomme Tiger Longwing ou Hecale Longwing en anglais.
-</t>
+Heliconius hecale zuleika Hewitson, 1854 ; présent au Nicaragua et au Panama (synonyme Heliconius hecale jucundus et Heliconius hecale xanthicles)</t>
         </is>
       </c>
     </row>
@@ -599,15 +617,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon aux ailes allongées et arrondies de couleur orange orné de marron. Les ailes antérieures sont orange avec un apex marron, une barre jaune ou des taches blanches, puis quelques taches marron. Les ailes postérieures sont orange bordées de marron et marquées d'une barre marron.
-Le revers présente la même ornementation.
-Chenilles
-Les chenilles sont blanches avec des épines et des cornes noires alors que la tête est orange[2]
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Tiger Longwing ou Hecale Longwing en anglais.
 </t>
         </is>
       </c>
@@ -633,13 +650,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Granadilla et Distephana (Passifloraceae)[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon aux ailes allongées et arrondies de couleur orange orné de marron. Les ailes antérieures sont orange avec un apex marron, une barre jaune ou des taches blanches, puis quelques taches marron. Les ailes postérieures sont orange bordées de marron et marquées d'une barre marron.
+Le revers présente la même ornementation.
 </t>
         </is>
       </c>
@@ -665,14 +684,125 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenilles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont blanches avec des épines et des cornes noires alors que la tête est orange
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_hecale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Granadilla et Distephana (Passifloraceae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_hecale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Guyane, au Guyana, au Surinam, au Nicaragua, au Panama, en Équateur, au Venezuela, au Guatemala, au Honduras, en Colombie, en Bolivie, au Brésil et au Pérou[1].
-Biotope
-Il réside dans la forêt[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Guyane, au Guyana, au Surinam, au Nicaragua, au Panama, en Équateur, au Venezuela, au Guatemala, au Honduras, en Colombie, en Bolivie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_hecale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt.
 </t>
         </is>
       </c>
